--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value202.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value202.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9882421854849102</v>
+        <v>1.459988594055176</v>
       </c>
       <c r="B1">
-        <v>1.488456473324907</v>
+        <v>3.622408866882324</v>
       </c>
       <c r="C1">
-        <v>2.264779075663737</v>
+        <v>6.173627376556396</v>
       </c>
       <c r="D1">
-        <v>2.533116858874025</v>
+        <v>1.505964040756226</v>
       </c>
       <c r="E1">
-        <v>1.3432072026627</v>
+        <v>0.8820995688438416</v>
       </c>
     </row>
   </sheetData>
